--- a/DataMigration/result.xlsx
+++ b/DataMigration/result.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dbrisk</t>
+          <t>ob--dbhub</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -470,41 +470,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dbrisk</t>
+          <t>ob--dbhub</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>auth_group</t>
+          <t>auth_group_permissions</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dbrisk</t>
+          <t>ob--dbhub</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>auth_group</t>
+          <t>auth_permission</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>auth_group</t>
+          <t>auth_user</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>auth_group_permissions</t>
+          <t>auth_user_groups</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>auth_permission</t>
+          <t>auth_user_user_permissions</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>auth_user</t>
+          <t>django_admin_log</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>auth_user_groups</t>
+          <t>django_content_type</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>auth_user_user_permissions</t>
+          <t>django_migrations</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>django_admin_log</t>
+          <t>django_session</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>django_content_type</t>
+          <t>my_cache_table</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>django_migrations</t>
+          <t>upload_app_content</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -664,51 +664,51 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ob--dbhub</t>
+          <t>dbhub</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>django_session</t>
+          <t>auth_group</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>数量记录不同</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ob--dbhub</t>
+          <t>dbhub</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>my_cache_table</t>
+          <t>auth_group</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ob--dbhub</t>
+          <t>dbhub</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>upload_app_content</t>
+          <t>auth_permission</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>数量记录不同</t>
         </is>
       </c>
     </row>
@@ -720,12 +720,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>auth_group</t>
+          <t>auth_permission</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>数量记录不同</t>
+          <t>否</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>auth_group</t>
+          <t>django_content_type</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>数量记录不同</t>
         </is>
       </c>
     </row>
@@ -754,12 +754,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>auth_permission</t>
+          <t>django_content_type</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>数量记录不同</t>
+          <t>否</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>auth_permission</t>
+          <t>django_migrations</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>数量记录不同</t>
         </is>
       </c>
     </row>
@@ -788,12 +788,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>django_content_type</t>
+          <t>django_migrations</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>数量记录不同</t>
+          <t>否</t>
         </is>
       </c>
     </row>
@@ -805,12 +805,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>django_content_type</t>
+          <t>my_cache_table</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>数量记录不同</t>
         </is>
       </c>
     </row>
@@ -822,12 +822,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>django_migrations</t>
+          <t>my_cache_table</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>数量记录不同</t>
+          <t>否</t>
         </is>
       </c>
     </row>
@@ -839,12 +839,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>django_migrations</t>
+          <t>upload_app_content</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>数量记录不同</t>
         </is>
       </c>
     </row>
@@ -856,61 +856,10 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>my_cache_table</t>
+          <t>upload_app_content</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
-        <is>
-          <t>数量记录不同</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>dbhub</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>my_cache_table</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>dbhub</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>upload_app_content</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>数量记录不同</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>dbhub</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>upload_app_content</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>否</t>
         </is>
@@ -927,7 +876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,210 +964,6 @@
         </is>
       </c>
       <c r="C5" t="inlineStr">
-        <is>
-          <t>((2, 'lushaogang'),)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>mysql -- dbrisk</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>auth_group</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>((1, 'lupengliang'),)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ob -- dbrisk</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>auth_group</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>((1, 'lupengliang12341234'),)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>mysql -- dbrisk</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>auth_group</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>((2, 'lush1213'),)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ob -- dbrisk</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>auth_group</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>((2, 'lushaogang'),)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>mysql -- dbrisk</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>auth_group</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>((1, 'lupengliang'),)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ob -- dbrisk</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>auth_group</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>((1, 'lupengliang12341234'),)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>mysql -- dbrisk</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>auth_group</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>((2, 'lush1213'),)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ob -- dbrisk</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>auth_group</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>((2, 'lushaogang'),)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>mysql -- dbrisk</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>auth_group</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>((1, 'lupengliang'),)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ob -- dbrisk</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>auth_group</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>((1, 'lupengliang12341234'),)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>mysql -- dbrisk</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>auth_group</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>((2, 'lush1213'),)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ob -- dbrisk</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>auth_group</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>((2, 'lushaogang'),)</t>
         </is>
